--- a/results/Memberwise_Total_Count.xlsx
+++ b/results/Memberwise_Total_Count.xlsx
@@ -55,9 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -423,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,6 +449,4447 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Raza Farhan</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aazma Farooq </t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Abdul Latif�</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Abid Hussain</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Adnan Ahmad</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Afaaf Khushhaal</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Afreen Kamal</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Afreen Parvez</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afreen Yaqoob </t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Afrina Arpi</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Afsha Khatun</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>Ahmad Raza</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Aisha Imran</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>Aksha Gohar</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Al Amin Gohar</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>Ali Afzal</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Ali Gohar</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Ali Hamza</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ali Hamza </t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ali Javaid </t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ali Rehman </t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alisha Kanwal </t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Amaira Rehman</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ambreen Riaz </t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amina Khatoon </t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>Amna Noor</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amna Rafiq </t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>Amna Rashid�</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Amra Boota</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>Andaleeb Nayar Azam</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Aneela Memon</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>Anjeela Basharat</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anoosha Furqan </t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>Anwar Hussain</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Areeba Furqan</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>Areesha Furqan</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>Arsalan Ali</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ashfaque </t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ashik Mondal </t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>Asia Akter</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asia Ijaz </t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>Asma Jawed</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>Ataa Arshad</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>Athe Ansar</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Ather Ansari</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>Atif Ahmad</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ayesha Ghulam </t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>Ayesha Mushtaq</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>Ayesha Siddiqia</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Azeem Nadeem </t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Azizul Haque </t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>Bano Fayaz</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Beauty Rani </t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>Bilal Qasim</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>Bilal Yaqoob Memon</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bisma Batool Amjad </t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bisma Irshd </t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bushra Farooq </t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>Bushra Khatun</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>Bushra Liaqat</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Danish Gohar</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>Doly Islam</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>Dr Smita Shete</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>Dr.Fozia Naeem</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ejaaz Ali
+</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>Ejaz Ali</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>Erum Rasheed</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>Faiz Gohar</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>Faizul Haq</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>Falak Naaz</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>Farah</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Farah Hussain </t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>Farhana Islam</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Farhat Riaz </t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>Fariha Imran</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Farkhunda Saleem </t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Faryal Khadim Hussain </t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Faryal Qayyum </t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>Farzana Jabbar</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Farzana Nargis </t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fateema Sayma </t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fateema Sidratul Muntaha </t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fathima Sani </t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>Fayzul Karim</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fida </t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Firdaush Khan </t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>Firoj Nazrul</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fizaa Gohar </t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>Fouzia Karim</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>Fozia Rafiq</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>Fozia Tariq</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>Fuljuri Khatun</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>Gautam</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ghulam Nabi </t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hafiz Amir </t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>Hafsa Farooq</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>Haieder Ali</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>Hamdiya Kazim</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>Hamna</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>Hamza Rocky</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>Hareem Altaf</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>Haseena Khan</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>Hassan Abid</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>Hassan Abid Ali</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>Hira Mansha</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>Humera Shafiq</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>Huram Fatima</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ibrar Ahmed </t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>Imran Babar</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>Iqra Khalid</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>Iqra Shahzaib</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iram Irfan           </t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iram Jamal  </t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>Ishmal Furqan</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>Jamaal Ali</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>Jannatun Nila</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jasmin Younus </t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>Joytara Bibi</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>Junaid</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>Kabirul Islam</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>Kalsoom</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>Kalsoom Aurangzaib</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>Kaneez Fatima</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kanwal Farhan  </t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>Kanwal�Farhan</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>Kashif Ali</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C127" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kiran Shahi </t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C128" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>Kosar Fatima</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C129" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kousar Irfan </t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C130" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lubeena Mehmood </t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C131" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>M Zaid</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C132" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Madiha Siddiqui </t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C133" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>Mafiya Aslam</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C134" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>Mahatarima Hashi</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C135" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>Mahjbeen Kashif</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C136" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mahnoor�Khadim Hussain </t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C137" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>Mahrukh Irfan Gohar</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C138" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="inlineStr">
+        <is>
+          <t>Maila Raina</t>
+        </is>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C139" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>Malaika Bburt</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C140" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>Maliha Khalid</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C141" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>Maria Gohar</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C142" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mariam Khan </t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C143" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>Masuma Akter</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C144" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>Md Ariful Islm</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C145" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>Md Firdous</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C146" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Md Rafi Uddin </t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C147" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>Md Serajul</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C148" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Md Shakil Khan </t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C149" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>Md Wasim</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C150" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>Md Zane Alam</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C151" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>Md. Ziyaul</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C152" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>Mehwish Mushtaq</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C153" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>Memona Rizvi</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C154" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Minaz Khanum </t>
+        </is>
+      </c>
+      <c r="B155" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C155" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>Mishaal Farhan</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C156" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="inlineStr">
+        <is>
+          <t>Mizanur Rahman</t>
+        </is>
+      </c>
+      <c r="B157" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C157" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <t>Mobarok Hossain</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C158" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="inlineStr">
+        <is>
+          <t>Mohammad Kaif</t>
+        </is>
+      </c>
+      <c r="B159" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C159" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>Mohammad Shahid Alam</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C160" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="inlineStr">
+        <is>
+          <t>Mohammed Zainul Abedin Alam</t>
+        </is>
+      </c>
+      <c r="B161" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C161" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>Mohebba Safdar</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C162" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="inlineStr">
+        <is>
+          <t>Momina H M</t>
+        </is>
+      </c>
+      <c r="B163" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C163" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>Monalisa</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C164" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="inlineStr">
+        <is>
+          <t>Moon Afsana</t>
+        </is>
+      </c>
+      <c r="B165" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C165" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mousumi </t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C166" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="inlineStr">
+        <is>
+          <t>Mubeena Munir</t>
+        </is>
+      </c>
+      <c r="B167" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C167" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="inlineStr">
+        <is>
+          <t>Muhammad Farhan�</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C168" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="inlineStr">
+        <is>
+          <t>Muhammad Imtiaz</t>
+        </is>
+      </c>
+      <c r="B169" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C169" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Muhammad Imtiaz	</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C170" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="inlineStr">
+        <is>
+          <t>Muhammad Talha Sajid</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C171" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Muhammad Yaseer
+</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C172" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Muhib Sakhi </t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C173" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>Musarat Afzal</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C174" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Muskan Aunti </t>
+        </is>
+      </c>
+      <c r="B175" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C175" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <t>Nadia Gohar</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C176" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="inlineStr">
+        <is>
+          <t>Nadia Liaquat</t>
+        </is>
+      </c>
+      <c r="B177" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C177" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="inlineStr">
+        <is>
+          <t>Nadim</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C178" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Naheed Kashif </t>
+        </is>
+      </c>
+      <c r="B179" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C179" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="inlineStr">
+        <is>
+          <t>Naheeda Anjum</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C180" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Najma Arif </t>
+        </is>
+      </c>
+      <c r="B181" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C181" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="inlineStr">
+        <is>
+          <t>Nargis</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C182" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Naseem Afreen </t>
+        </is>
+      </c>
+      <c r="B183" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C183" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="inlineStr">
+        <is>
+          <t>Naseem Fida Hussain</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C184" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="inlineStr">
+        <is>
+          <t>Nasir Algohar</t>
+        </is>
+      </c>
+      <c r="B185" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C185" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="inlineStr">
+        <is>
+          <t>Naveera Farhan</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C186" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="inlineStr">
+        <is>
+          <t>Nazia Norin</t>
+        </is>
+      </c>
+      <c r="B187" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C187" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="inlineStr">
+        <is>
+          <t>Nazia Sattar</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C188" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="inlineStr">
+        <is>
+          <t>Nazia�Aleem</t>
+        </is>
+      </c>
+      <c r="B189" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C189" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nazrin Rumi </t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C190" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="inlineStr">
+        <is>
+          <t>Neha Naaz</t>
+        </is>
+      </c>
+      <c r="B191" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C191" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="inlineStr">
+        <is>
+          <t>Noor Jahan</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C192" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Noreen Amjad </t>
+        </is>
+      </c>
+      <c r="B193" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C193" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="inlineStr">
+        <is>
+          <t>Noushaba Gohar</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C194" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nusrat Bhat </t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C195" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="inlineStr">
+        <is>
+          <t>Parbin Mallick</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C196" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parwisha Raees </t>
+        </is>
+      </c>
+      <c r="B197" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C197" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="inlineStr">
+        <is>
+          <t>Polash Mahmud</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C198" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Qamar Ali </t>
+        </is>
+      </c>
+      <c r="B199" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C199" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="inlineStr">
+        <is>
+          <t>Qamar Un Nisa</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C200" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="inlineStr">
+        <is>
+          <t>Quratulain</t>
+        </is>
+      </c>
+      <c r="B201" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C201" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rabeka Khanam </t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C202" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rafia Beghum
+</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C203" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="inlineStr">
+        <is>
+          <t>Rafia Khadim Hussain</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C204" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="inlineStr">
+        <is>
+          <t>Rahat Usman</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C205" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="inlineStr">
+        <is>
+          <t>Rahila Shoaib</t>
+        </is>
+      </c>
+      <c r="B206" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C206" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="inlineStr">
+        <is>
+          <t>Rani Raza</t>
+        </is>
+      </c>
+      <c r="B207" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C207" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="inlineStr">
+        <is>
+          <t>Rasel Kabir</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C208" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="inlineStr">
+        <is>
+          <t>Rasida Parween</t>
+        </is>
+      </c>
+      <c r="B209" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C209" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="inlineStr">
+        <is>
+          <t>Rehana Umer</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C210" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reshma Khan </t>
+        </is>
+      </c>
+      <c r="B211" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C211" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Riaz Ul Islam </t>
+        </is>
+      </c>
+      <c r="B212" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C212" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rifat Ahmad </t>
+        </is>
+      </c>
+      <c r="B213" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C213" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="inlineStr">
+        <is>
+          <t>Rifat Raza</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C214" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="inlineStr">
+        <is>
+          <t>Rimsha Bashir</t>
+        </is>
+      </c>
+      <c r="B215" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C215" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="inlineStr">
+        <is>
+          <t>Rina Akter</t>
+        </is>
+      </c>
+      <c r="B216" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C216" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="inlineStr">
+        <is>
+          <t>Rownak Jahan</t>
+        </is>
+      </c>
+      <c r="B217" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C217" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rubab Mir </t>
+        </is>
+      </c>
+      <c r="B218" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C218" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="inlineStr">
+        <is>
+          <t>Ruhul Amin</t>
+        </is>
+      </c>
+      <c r="B219" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C219" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="inlineStr">
+        <is>
+          <t>Rukaya Riayaz</t>
+        </is>
+      </c>
+      <c r="B220" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C220" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rukaya Riaz </t>
+        </is>
+      </c>
+      <c r="B221" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C221" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rukshana Pervin </t>
+        </is>
+      </c>
+      <c r="B222" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C222" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="inlineStr">
+        <is>
+          <t>Runa Akter</t>
+        </is>
+      </c>
+      <c r="B223" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C223" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="inlineStr">
+        <is>
+          <t>Saad Khalid</t>
+        </is>
+      </c>
+      <c r="B224" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C224" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saba Ansari
+</t>
+        </is>
+      </c>
+      <c r="B225" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C225" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="inlineStr">
+        <is>
+          <t>Saba Yasir</t>
+        </is>
+      </c>
+      <c r="B226" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C226" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="inlineStr">
+        <is>
+          <t>Sabbir Reza</t>
+        </is>
+      </c>
+      <c r="B227" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C227" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="inlineStr">
+        <is>
+          <t>Sabina Khatun</t>
+        </is>
+      </c>
+      <c r="B228" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C228" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="inlineStr">
+        <is>
+          <t>Sabir Tarefdar</t>
+        </is>
+      </c>
+      <c r="B229" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C229" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="inlineStr">
+        <is>
+          <t>Sabreen Khan</t>
+        </is>
+      </c>
+      <c r="B230" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C230" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="inlineStr">
+        <is>
+          <t>Sadia Adnan</t>
+        </is>
+      </c>
+      <c r="B231" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C231" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="inlineStr">
+        <is>
+          <t>Sadia Ismail</t>
+        </is>
+      </c>
+      <c r="B232" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C232" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="inlineStr">
+        <is>
+          <t>Saima Wariyam</t>
+        </is>
+      </c>
+      <c r="B233" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C233" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="inlineStr">
+        <is>
+          <t>Sajjad Ali Abbasi</t>
+        </is>
+      </c>
+      <c r="B234" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C234" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="inlineStr">
+        <is>
+          <t>Sakila Younus</t>
+        </is>
+      </c>
+      <c r="B235" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C235" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="inlineStr">
+        <is>
+          <t>Sakina Bano</t>
+        </is>
+      </c>
+      <c r="B236" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C236" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="inlineStr">
+        <is>
+          <t>Sakina Zakir</t>
+        </is>
+      </c>
+      <c r="B237" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C237" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="inlineStr">
+        <is>
+          <t>Saleem Siddiqui</t>
+        </is>
+      </c>
+      <c r="B238" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C238" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="inlineStr">
+        <is>
+          <t>Sameena Taj</t>
+        </is>
+      </c>
+      <c r="B239" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C239" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="inlineStr">
+        <is>
+          <t>Samina Farman</t>
+        </is>
+      </c>
+      <c r="B240" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C240" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="inlineStr">
+        <is>
+          <t>Samina Fiaz</t>
+        </is>
+      </c>
+      <c r="B241" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C241" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="inlineStr">
+        <is>
+          <t>Samina Nadeem</t>
+        </is>
+      </c>
+      <c r="B242" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C242" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="inlineStr">
+        <is>
+          <t>Samina Wahab</t>
+        </is>
+      </c>
+      <c r="B243" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C243" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="inlineStr">
+        <is>
+          <t>Samra Qasim</t>
+        </is>
+      </c>
+      <c r="B244" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C244" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="inlineStr">
+        <is>
+          <t>Samsul Alam</t>
+        </is>
+      </c>
+      <c r="B245" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C245" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="inlineStr">
+        <is>
+          <t>Sana Jamal</t>
+        </is>
+      </c>
+      <c r="B246" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C246" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="inlineStr">
+        <is>
+          <t>Sana Manzoor</t>
+        </is>
+      </c>
+      <c r="B247" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C247" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="inlineStr">
+        <is>
+          <t>Sana Shahbaz</t>
+        </is>
+      </c>
+      <c r="B248" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C248" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saniya Arif Gohar </t>
+        </is>
+      </c>
+      <c r="B249" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C249" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="inlineStr">
+        <is>
+          <t>Sapna Patel</t>
+        </is>
+      </c>
+      <c r="B250" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C250" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="inlineStr">
+        <is>
+          <t>Saqlain Yasin</t>
+        </is>
+      </c>
+      <c r="B251" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C251" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saud </t>
+        </is>
+      </c>
+      <c r="B252" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C252" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seema Islam </t>
+        </is>
+      </c>
+      <c r="B253" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C253" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sehar Abid </t>
+        </is>
+      </c>
+      <c r="B254" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C254" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="inlineStr">
+        <is>
+          <t>Selina Nasrin</t>
+        </is>
+      </c>
+      <c r="B255" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C255" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="inlineStr">
+        <is>
+          <t>Shabana Baji</t>
+        </is>
+      </c>
+      <c r="B256" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C256" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shabnam Alam
+</t>
+        </is>
+      </c>
+      <c r="B257" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C257" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="inlineStr">
+        <is>
+          <t>Shabnam Bano</t>
+        </is>
+      </c>
+      <c r="B258" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C258" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shafeeq Abid </t>
+        </is>
+      </c>
+      <c r="B259" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C259" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="inlineStr">
+        <is>
+          <t>Shafiq Abid</t>
+        </is>
+      </c>
+      <c r="B260" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C260" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="inlineStr">
+        <is>
+          <t>Shagufta Ibrahim</t>
+        </is>
+      </c>
+      <c r="B261" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C261" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="inlineStr">
+        <is>
+          <t>Shahadat Hossain</t>
+        </is>
+      </c>
+      <c r="B262" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C262" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shahenshah Haidar </t>
+        </is>
+      </c>
+      <c r="B263" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C263" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shahenshah Haidar 
+</t>
+        </is>
+      </c>
+      <c r="B264" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C264" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="inlineStr">
+        <is>
+          <t>Shahida</t>
+        </is>
+      </c>
+      <c r="B265" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C265" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shakeela Mudasir </t>
+        </is>
+      </c>
+      <c r="B266" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C266" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="inlineStr">
+        <is>
+          <t>Shakeela Taj</t>
+        </is>
+      </c>
+      <c r="B267" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C267" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="inlineStr">
+        <is>
+          <t>Shama Malik</t>
+        </is>
+      </c>
+      <c r="B268" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C268" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="inlineStr">
+        <is>
+          <t>Shamim Shaikh</t>
+        </is>
+      </c>
+      <c r="B269" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C269" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="inlineStr">
+        <is>
+          <t>Shamima Aktar</t>
+        </is>
+      </c>
+      <c r="B270" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C270" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shamima Nasrin </t>
+        </is>
+      </c>
+      <c r="B271" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C271" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shamsheeda Bughum
+</t>
+        </is>
+      </c>
+      <c r="B272" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C272" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="inlineStr">
+        <is>
+          <t>Shanta Akter</t>
+        </is>
+      </c>
+      <c r="B273" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C273" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shantul Junaid </t>
+        </is>
+      </c>
+      <c r="B274" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C274" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="inlineStr">
+        <is>
+          <t>Shanza Sabir</t>
+        </is>
+      </c>
+      <c r="B275" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C275" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="inlineStr">
+        <is>
+          <t>Shapla Shapu</t>
+        </is>
+      </c>
+      <c r="B276" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C276" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sharafuddin Chandio </t>
+        </is>
+      </c>
+      <c r="B277" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C277" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="inlineStr">
+        <is>
+          <t>Shazia A.Razaq</t>
+        </is>
+      </c>
+      <c r="B278" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C278" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shazia Haee </t>
+        </is>
+      </c>
+      <c r="B279" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C279" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="inlineStr">
+        <is>
+          <t>Shaziya Khatoon</t>
+        </is>
+      </c>
+      <c r="B280" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C280" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shifa Shaikh  </t>
+        </is>
+      </c>
+      <c r="B281" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C281" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="inlineStr">
+        <is>
+          <t>Shiza Junaid</t>
+        </is>
+      </c>
+      <c r="B282" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C282" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="inlineStr">
+        <is>
+          <t>Shubhgautam</t>
+        </is>
+      </c>
+      <c r="B283" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C283" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="inlineStr">
+        <is>
+          <t>Siraj Munir</t>
+        </is>
+      </c>
+      <c r="B284" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C284" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sk Nazir Hussain </t>
+        </is>
+      </c>
+      <c r="B285" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C285" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="inlineStr">
+        <is>
+          <t>Sobia</t>
+        </is>
+      </c>
+      <c r="B286" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C286" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sobia Imran </t>
+        </is>
+      </c>
+      <c r="B287" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C287" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="inlineStr">
+        <is>
+          <t>Sofi Alam Mallick</t>
+        </is>
+      </c>
+      <c r="B288" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C288" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sohab Afser </t>
+        </is>
+      </c>
+      <c r="B289" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C289" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="inlineStr">
+        <is>
+          <t>Sohail Abbas Bhaker</t>
+        </is>
+      </c>
+      <c r="B290" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C290" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sufiya Alam
+</t>
+        </is>
+      </c>
+      <c r="B291" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C291" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="inlineStr">
+        <is>
+          <t>Sufya Shahadat</t>
+        </is>
+      </c>
+      <c r="B292" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C292" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="inlineStr">
+        <is>
+          <t>Sughra</t>
+        </is>
+      </c>
+      <c r="B293" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C293" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sultana Razia </t>
+        </is>
+      </c>
+      <c r="B294" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C294" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sumair Aslam </t>
+        </is>
+      </c>
+      <c r="B295" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C295" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="inlineStr">
+        <is>
+          <t>Sumair Naeem</t>
+        </is>
+      </c>
+      <c r="B296" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C296" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="inlineStr">
+        <is>
+          <t>Sumera Kashif</t>
+        </is>
+      </c>
+      <c r="B297" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C297" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="inlineStr">
+        <is>
+          <t>Sunaina Gohar</t>
+        </is>
+      </c>
+      <c r="B298" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C298" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="inlineStr">
+        <is>
+          <t>Syed Zarar Mehdi</t>
+        </is>
+      </c>
+      <c r="B299" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C299" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="inlineStr">
+        <is>
+          <t>Syeda Sabina Malik Asaam</t>
+        </is>
+      </c>
+      <c r="B300" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C300" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Syeda Samia Gohar </t>
+        </is>
+      </c>
+      <c r="B301" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C301" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="inlineStr">
+        <is>
+          <t>Tahaseenn</t>
+        </is>
+      </c>
+      <c r="B302" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C302" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tahir Shaikh </t>
+        </is>
+      </c>
+      <c r="B303" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C303" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tahira Nazish Sgy </t>
+        </is>
+      </c>
+      <c r="B304" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C304" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tahira Sajjad </t>
+        </is>
+      </c>
+      <c r="B305" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C305" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="inlineStr">
+        <is>
+          <t>Tahira Tabassum</t>
+        </is>
+      </c>
+      <c r="B306" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C306" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="inlineStr">
+        <is>
+          <t>Taiyaba Farooq Memon</t>
+        </is>
+      </c>
+      <c r="B307" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C307" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="inlineStr">
+        <is>
+          <t>Tajmira Islam</t>
+        </is>
+      </c>
+      <c r="B308" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C308" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Talha Farooq </t>
+        </is>
+      </c>
+      <c r="B309" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C309" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="inlineStr">
+        <is>
+          <t>Tamanna Firdaus</t>
+        </is>
+      </c>
+      <c r="B310" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C310" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tamanna Firdaus </t>
+        </is>
+      </c>
+      <c r="B311" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C311" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="inlineStr">
+        <is>
+          <t>Tanweer Hussain</t>
+        </is>
+      </c>
+      <c r="B312" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C312" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="inlineStr">
+        <is>
+          <t>Tarin Tara</t>
+        </is>
+      </c>
+      <c r="B313" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C313" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="inlineStr">
+        <is>
+          <t>Tasheen Shahi</t>
+        </is>
+      </c>
+      <c r="B314" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C314" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="inlineStr">
+        <is>
+          <t>Taslima Rashid</t>
+        </is>
+      </c>
+      <c r="B315" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C315" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="inlineStr">
+        <is>
+          <t>Tausif Anwar</t>
+        </is>
+      </c>
+      <c r="B316" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C316" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tayyaba Shahzadi </t>
+        </is>
+      </c>
+      <c r="B317" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C317" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="inlineStr">
+        <is>
+          <t>Turjo Armania</t>
+        </is>
+      </c>
+      <c r="B318" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C318" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="inlineStr">
+        <is>
+          <t>Ume Hadia</t>
+        </is>
+      </c>
+      <c r="B319" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C319" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Urujj </t>
+        </is>
+      </c>
+      <c r="B320" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C320" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="inlineStr">
+        <is>
+          <t>Yaseer</t>
+        </is>
+      </c>
+      <c r="B321" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C321" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yasmeen Abid </t>
+        </is>
+      </c>
+      <c r="B322" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C322" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yousuf  </t>
+        </is>
+      </c>
+      <c r="B323" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C323" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zahid Ansari </t>
+        </is>
+      </c>
+      <c r="B324" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C324" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zahid Nazir </t>
+        </is>
+      </c>
+      <c r="B325" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C325" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="inlineStr">
+        <is>
+          <t>Zahida Shahi</t>
+        </is>
+      </c>
+      <c r="B326" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C326" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="inlineStr">
+        <is>
+          <t>Zaiba Faruque Shaikh</t>
+        </is>
+      </c>
+      <c r="B327" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C327" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="inlineStr">
+        <is>
+          <t>Zainab Faizan</t>
+        </is>
+      </c>
+      <c r="B328" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C328" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="inlineStr">
+        <is>
+          <t>Zakir Hussain</t>
+        </is>
+      </c>
+      <c r="B329" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C329" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zakir Hussain </t>
+        </is>
+      </c>
+      <c r="B330" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C330" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="inlineStr">
+        <is>
+          <t>Zannatun  Nahar</t>
+        </is>
+      </c>
+      <c r="B331" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C331" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="inlineStr">
+        <is>
+          <t>Zeba Ansari</t>
+        </is>
+      </c>
+      <c r="B332" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C332" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zeba Ansari </t>
+        </is>
+      </c>
+      <c r="B333" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C333" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zeeshan Shafique </t>
+        </is>
+      </c>
+      <c r="B334" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C334" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zenab </t>
+        </is>
+      </c>
+      <c r="B335" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C335" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="inlineStr">
+        <is>
+          <t>Zenab Irshad</t>
+        </is>
+      </c>
+      <c r="B336" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C336" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="inlineStr">
+        <is>
+          <t>Zenab Jamila</t>
+        </is>
+      </c>
+      <c r="B337" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C337" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="inlineStr">
+        <is>
+          <t>Zoobi</t>
+        </is>
+      </c>
+      <c r="B338" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C338" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="inlineStr">
+        <is>
+          <t>Zoubiya Aqil</t>
+        </is>
+      </c>
+      <c r="B339" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C339" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2" t="inlineStr">
+        <is>
+          <t>Zulekha Mirjat</t>
+        </is>
+      </c>
+      <c r="B340" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C340" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2" t="inlineStr">
+        <is>
+          <t>Zulkar Nain</t>
+        </is>
+      </c>
+      <c r="B341" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C341" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="inlineStr">
+        <is>
+          <t>Zunaira Afzal</t>
+        </is>
+      </c>
+      <c r="B342" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C342" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
